--- a/biology/Botanique/Nuxia_floribunda/Nuxia_floribunda.xlsx
+++ b/biology/Botanique/Nuxia_floribunda/Nuxia_floribunda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nuxia floribunda
 Nuxia floribunda est une espèce d'arbre appartenant à la famille des Stilbaceae, natif du sud de l'Afrique.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il mesure généralement entre 3 et 10 mètres de haut, mais il peut atteindre 25 mètres. Il a un tronc tordu, une écorce rugueuse et écorchée , une couronne arrondie. De grandes panicules de fleurs blanches à crème parfumées sont produites de l'automne au printemps[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il mesure généralement entre 3 et 10 mètres de haut, mais il peut atteindre 25 mètres. Il a un tronc tordu, une écorce rugueuse et écorchée , une couronne arrondie. De grandes panicules de fleurs blanches à crème parfumées sont produites de l'automne au printemps.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition naturelle de cette espèce va du Sud-ouest de l'Ouganda, en passant par le Mozambique et le Zimbabwe, jusqu'à  l'Afrique du Sud. C'est un arbuste ou un arbre qui pousse principalement dans le biome subtropical[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition naturelle de cette espèce va du Sud-ouest de l'Ouganda, en passant par le Mozambique et le Zimbabwe, jusqu'à  l'Afrique du Sud. C'est un arbuste ou un arbre qui pousse principalement dans le biome subtropical,.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Nuxia floribunda a été décrite par George Bentham, et publié sur « Companion to the Botanical Magazine » 2: 59, dans l'année 1836 [4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nuxia floribunda a été décrite par George Bentham, et publié sur « Companion to the Botanical Magazine » 2: 59, dans l'année 1836 .
 Synonymie
 Lachnopylis polyantha (Gilg) C.A.Sm.
 Lachnopylis polyantha (Gilg) C.A.Sm.
@@ -584,7 +602,7 @@
 Nuxia holstii       (Gilg) Gilg 
 Nuxia polyantha       Gilg    
 Nuxia usambarensis  Gilg
-Nuxia volkensii     Gilg [5]</t>
+Nuxia volkensii     Gilg </t>
         </is>
       </c>
     </row>
